--- a/dtpu_configurations/only_integer32/30mhz/mxu_6x6/power.xlsx
+++ b/dtpu_configurations/only_integer32/30mhz/mxu_6x6/power.xlsx
@@ -175,34 +175,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.012804782949388027</v>
+        <v>0.017730282619595528</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005300404038280249</v>
+        <v>0.00649646483361721</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004190673585981131</v>
+        <v>0.004876925144344568</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0029193121008574963</v>
+        <v>0.003420118475332856</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.6724537999834865E-5</v>
+        <v>9.315400966443121E-4</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0010562879033386707</v>
+        <v>0.0014704264467582107</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12673160433769226</v>
+        <v>0.1273120790719986</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4112038612365723</v>
+        <v>1.420403003692627</v>
       </c>
     </row>
   </sheetData>
